--- a/sistematizacion/sofi.xlsx
+++ b/sistematizacion/sofi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Workspace\Bosque\sistematizacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto.Renteria\iteso\bosque\sistematizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08BEA862-2E02-4D91-8B16-29D738503A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A27511-841D-4CD4-8013-BCD6E14C7A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{511728EA-EEBE-4DEB-B5D3-17150CC55C17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{511728EA-EEBE-4DEB-B5D3-17150CC55C17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sofiobru" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="215">
   <si>
     <t>/</t>
   </si>
@@ -485,9 +485,6 @@
     <t>canastilla (phyllanthus carolinensis)</t>
   </si>
   <si>
-    <t>USR7-4</t>
-  </si>
-  <si>
     <t>arnica de la costa (Verbesina fastigata)</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
     <t>bretonica (lepechinia caulescens)</t>
   </si>
   <si>
-    <t>USR7-3</t>
-  </si>
-  <si>
     <t>por todos lados</t>
   </si>
   <si>
@@ -515,12 +509,6 @@
     <t>hoja circular rastrera</t>
   </si>
   <si>
-    <t>USR7-2</t>
-  </si>
-  <si>
-    <t>USR7-1</t>
-  </si>
-  <si>
     <t>Género Aristidas</t>
   </si>
   <si>
@@ -530,9 +518,6 @@
     <t>U8R7-1</t>
   </si>
   <si>
-    <t>USR8-4</t>
-  </si>
-  <si>
     <t>1, 2</t>
   </si>
   <si>
@@ -545,9 +530,6 @@
     <t>genero hylodesmum</t>
   </si>
   <si>
-    <t>USR8-3</t>
-  </si>
-  <si>
     <t>picos (hierba sapo)</t>
   </si>
   <si>
@@ -557,9 +539,6 @@
     <t>1 a 3</t>
   </si>
   <si>
-    <t>USR8-2</t>
-  </si>
-  <si>
     <t>12 a 16</t>
   </si>
   <si>
@@ -584,9 +563,6 @@
     <t>12 a 14</t>
   </si>
   <si>
-    <t>USR8-1</t>
-  </si>
-  <si>
     <t>9 a 11</t>
   </si>
   <si>
@@ -687,6 +663,24 @@
   </si>
   <si>
     <t>Código</t>
+  </si>
+  <si>
+    <t>U8R8-2</t>
+  </si>
+  <si>
+    <t>U8R8-3</t>
+  </si>
+  <si>
+    <t>U8R8-4</t>
+  </si>
+  <si>
+    <t>U8R7-2</t>
+  </si>
+  <si>
+    <t>U8R7-3</t>
+  </si>
+  <si>
+    <t>U8R7-4</t>
   </si>
 </sst>
 </file>
@@ -1197,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E821CC8D-19DB-4F10-A8B8-EF7397BE40EE}">
   <dimension ref="A1:L293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="83" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="I268" sqref="I268"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="83" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,38 +1202,38 @@
   <sheetData>
     <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B2" s="23">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>0</v>
@@ -1258,7 +1252,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B3" s="23">
         <v>2</v>
@@ -1278,13 +1272,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B4" s="23">
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>0</v>
@@ -1298,7 +1292,7 @@
     </row>
     <row r="5" spans="1:10" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B5" s="23">
         <v>4</v>
@@ -1319,7 +1313,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B6" s="23">
         <v>1</v>
@@ -1342,13 +1336,13 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B7" s="23">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>0</v>
@@ -1362,7 +1356,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B8" s="23">
         <v>3</v>
@@ -1381,7 +1375,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B9" s="23">
         <v>4</v>
@@ -1402,7 +1396,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B10" s="23">
         <v>5</v>
@@ -1423,7 +1417,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B11" s="23">
         <v>1</v>
@@ -1447,13 +1441,13 @@
     </row>
     <row r="12" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>0</v>
@@ -1468,7 +1462,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B13" s="23">
         <v>1</v>
@@ -1492,7 +1486,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B14" s="23">
         <v>2</v>
@@ -1513,7 +1507,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B15" s="23">
         <v>3</v>
@@ -1534,7 +1528,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B16" s="23">
         <v>4</v>
@@ -1555,7 +1549,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B17" s="21">
         <v>5</v>
@@ -1577,7 +1571,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>24</v>
@@ -1601,16 +1595,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E19" s="23">
         <v>6</v>
@@ -1621,13 +1615,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B20" s="23">
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>0</v>
@@ -1639,13 +1633,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B21" s="23">
         <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D21" s="24">
         <v>95</v>
@@ -1659,7 +1653,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B22" s="23">
         <v>1</v>
@@ -1683,7 +1677,7 @@
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>65</v>
@@ -1692,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E23" s="23">
         <v>1</v>
@@ -1703,7 +1697,7 @@
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>33</v>
@@ -1712,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E24" s="23">
         <v>51</v>
@@ -1723,13 +1717,13 @@
     </row>
     <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="23"/>
@@ -1742,7 +1736,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>22</v>
@@ -1761,13 +1755,13 @@
     </row>
     <row r="27" spans="1:10" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="23" t="s">
@@ -1780,13 +1774,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B28" s="23">
         <v>11</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="23">
@@ -1798,13 +1792,13 @@
     </row>
     <row r="29" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B29" s="23">
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="23"/>
@@ -1815,7 +1809,7 @@
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="14" t="str">
@@ -1838,19 +1832,19 @@
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F31" s="18">
         <v>45938</v>
@@ -1862,10 +1856,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>29</v>
@@ -1882,13 +1876,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D33" s="24">
         <v>70</v>
@@ -1902,13 +1896,13 @@
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" s="24">
         <v>39</v>
@@ -1922,17 +1916,17 @@
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>180</v>
       </c>
       <c r="C35" s="17" t="str">
         <f>C31</f>
         <v>Burrillo (Stevia serrata)</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E35" s="23">
         <v>5</v>
@@ -1946,10 +1940,10 @@
     </row>
     <row r="36" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>29</v>
@@ -1967,13 +1961,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>0</v>
@@ -1987,10 +1981,10 @@
     </row>
     <row r="38" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>105</v>
@@ -2008,10 +2002,10 @@
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C39" s="17" t="str">
         <f>C34</f>
@@ -2029,13 +2023,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="B40" s="23">
         <v>1</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>0</v>
@@ -2049,17 +2043,17 @@
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C41" s="17" t="str">
         <f>C31</f>
         <v>Burrillo (Stevia serrata)</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E41" s="23">
         <v>3</v>
@@ -2073,11 +2067,11 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D42" s="24">
         <v>150</v>
@@ -2091,11 +2085,11 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D43" s="24">
         <v>8</v>
@@ -2109,7 +2103,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="17" t="s">
@@ -2127,7 +2121,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="B45" s="23">
         <v>4</v>
@@ -2146,11 +2140,11 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D46" s="24">
         <v>200</v>
@@ -2167,11 +2161,11 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D47" s="24">
         <v>3</v>
@@ -2185,7 +2179,7 @@
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="17" t="str">
@@ -2193,7 +2187,7 @@
         <v>Burrillo (Stevia serrata)</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E48" s="23">
         <v>4</v>
@@ -2204,11 +2198,11 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>0</v>
@@ -2222,10 +2216,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>148</v>
@@ -2242,7 +2236,7 @@
     </row>
     <row r="51" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="B51" s="23">
         <v>3</v>
@@ -2263,7 +2257,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="B52" s="21">
         <v>4</v>
@@ -2284,7 +2278,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B53" s="23" t="s">
         <v>24</v>
@@ -2308,13 +2302,13 @@
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B54" s="23">
         <v>3</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>0</v>
@@ -2328,10 +2322,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>29</v>
@@ -2348,11 +2342,11 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>0</v>
@@ -2364,7 +2358,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="17" t="str">
@@ -2383,7 +2377,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="28" t="s">
@@ -2404,11 +2398,11 @@
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>0</v>
@@ -2422,7 +2416,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="17" t="s">
@@ -2440,17 +2434,17 @@
     </row>
     <row r="61" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F61" s="18">
         <v>45938</v>
@@ -2458,17 +2452,17 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="23" t="s">
         <v>154</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>156</v>
       </c>
       <c r="F62" s="18">
         <v>45938</v>
@@ -2479,7 +2473,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="6" t="str">
@@ -2498,7 +2492,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="27" t="s">
@@ -2516,7 +2510,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="28" t="s">
@@ -2534,11 +2528,11 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>0</v>
@@ -2553,14 +2547,14 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E67" s="23">
         <v>1</v>
@@ -2571,11 +2565,11 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68">
         <v>20</v>
@@ -2589,11 +2583,11 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D69">
         <v>25</v>
@@ -2607,7 +2601,7 @@
     </row>
     <row r="70" spans="1:10" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="19" t="s">
@@ -2626,7 +2620,7 @@
     </row>
     <row r="71" spans="1:10" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="27" t="s">
